--- a/tools/excel_tool/test.xlsx
+++ b/tools/excel_tool/test.xlsx
@@ -45,7 +45,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
+    <t>text</t>
   </si>
   <si>
     <t>enum("gender"), ordered_unique</t>
@@ -54,13 +54,13 @@
     <t>enum("career"), unordered_unique</t>
   </si>
   <si>
-    <t>int, extern("tpl_skill")</t>
+    <t>int(extern("tpl_skill"))</t>
   </si>
   <si>
     <t>vector(int)</t>
   </si>
   <si>
-    <t>multi_map(int,int), [], [extern("tpl_skill")]</t>
+    <t>multi_map(int, int(extern("tpl_skill")))</t>
   </si>
   <si>
     <t>id</t>
@@ -110,6 +110,7 @@
       <u/>
       <sz val="12"/>
       <color indexed="20"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -518,14 +519,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="8" width="24.875" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
   </cols>
